--- a/Data/tableau tag/HtmlCss_list, (1).xlsx
+++ b/Data/tableau tag/HtmlCss_list, (1).xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\deepcodeurDJANGO\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etienne\Desktop\DeepCodeur v2\DeepCodeur\Data\tableau tag\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EB57DA-BF34-4DD4-B884-79F7360DCE2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML_list-tag" sheetId="1" r:id="rId1"/>
     <sheet name="CSS_list-propriétés" sheetId="2" r:id="rId2"/>
-    <sheet name="HTML_list-attribut" sheetId="3" r:id="rId3"/>
+    <sheet name="ListeBalises" sheetId="4" r:id="rId3"/>
+    <sheet name="HTML_list-attribut" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="739">
   <si>
     <t>Balise html</t>
   </si>
@@ -3030,7 +3032,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3417,14 +3419,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="165.44140625" customWidth="1"/>
@@ -4428,14 +4430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" customWidth="1"/>
     <col min="2" max="2" width="21.21875" customWidth="1"/>
@@ -5258,14 +5260,292 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBE4CD9-C465-48EB-9066-A3344DB61A8C}">
+  <dimension ref="A1:A102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="103.5546875" customWidth="1"/>
